--- a/doc/timelog/p.xlsx
+++ b/doc/timelog/p.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1935" yWindow="1455" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="1935" yWindow="1905" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -392,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,6 +701,12 @@
         <v>0</v>
       </c>
     </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D31" s="3">
+        <f>SUM(D2:D30)</f>
+        <v>0.12500000000000011</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/doc/timelog/p.xlsx
+++ b/doc/timelog/p.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1935" yWindow="1905" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="5325" yWindow="1905" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>date</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t>finished proposal</t>
+  </si>
+  <si>
+    <t>Leap SDK 2.0 umstellung</t>
+  </si>
+  <si>
+    <t>Domänenmodell</t>
   </si>
 </sst>
 </file>
@@ -395,7 +401,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,7 +430,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>41740</v>
+        <v>41770</v>
       </c>
       <c r="B2" s="3">
         <v>0.66666666666666663</v>
@@ -442,7 +448,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>41741</v>
+        <v>41771</v>
       </c>
       <c r="B3" s="3">
         <v>0.72916666666666663</v>
@@ -459,21 +465,39 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="A4" s="2">
+        <v>41785</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.9375</v>
+      </c>
       <c r="D4" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.14583333333333337</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="2">
+        <v>41790</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333259E-2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -704,7 +728,7 @@
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D31" s="3">
         <f>SUM(D2:D30)</f>
-        <v>0.12500000000000011</v>
+        <v>0.29166666666666674</v>
       </c>
     </row>
   </sheetData>

--- a/doc/timelog/p.xlsx
+++ b/doc/timelog/p.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5325" yWindow="1905" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="7020" yWindow="1905" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>date</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>Domänenmodell</t>
+  </si>
+  <si>
+    <t>LeapProvider + Convert (untested), Contracts unfinished</t>
   </si>
 </sst>
 </file>
@@ -501,12 +504,21 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="A6" s="2">
+        <v>41790</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="D6" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.125</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -728,7 +740,7 @@
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D31" s="3">
         <f>SUM(D2:D30)</f>
-        <v>0.29166666666666674</v>
+        <v>0.41666666666666674</v>
       </c>
     </row>
   </sheetData>

--- a/doc/timelog/p.xlsx
+++ b/doc/timelog/p.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="7020" yWindow="1905" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="8715" yWindow="1905" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>date</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>LeapProvider + Convert (untested), Contracts unfinished</t>
+  </si>
+  <si>
+    <t>SharpDX recherchen, SharpDX.WPF einbinden</t>
   </si>
 </sst>
 </file>
@@ -404,7 +407,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,12 +525,21 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="A7" s="2">
+        <v>41790</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.8125</v>
+      </c>
       <c r="D7" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -740,7 +752,7 @@
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D31" s="3">
         <f>SUM(D2:D30)</f>
-        <v>0.41666666666666674</v>
+        <v>0.47916666666666674</v>
       </c>
     </row>
   </sheetData>

--- a/doc/timelog/p.xlsx
+++ b/doc/timelog/p.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="8715" yWindow="1905" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="10410" yWindow="1905" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>date</t>
   </si>
@@ -47,6 +47,12 @@
   </si>
   <si>
     <t>SharpDX recherchen, SharpDX.WPF einbinden</t>
+  </si>
+  <si>
+    <t>SharpDX sample (version bug)</t>
+  </si>
+  <si>
+    <t>Set SharpDX to 2.3.1</t>
   </si>
 </sst>
 </file>
@@ -407,7 +413,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,21 +549,39 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="A8" s="2">
+        <v>41790</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.95833333333333337</v>
+      </c>
       <c r="D8" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="A9" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.4375</v>
+      </c>
       <c r="D9" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666685E-2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -752,7 +776,7 @@
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D31" s="3">
         <f>SUM(D2:D30)</f>
-        <v>0.47916666666666674</v>
+        <v>0.60416666666666674</v>
       </c>
     </row>
   </sheetData>

--- a/doc/timelog/p.xlsx
+++ b/doc/timelog/p.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10410" yWindow="1905" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="12105" yWindow="1905" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>date</t>
   </si>
@@ -53,6 +53,12 @@
   </si>
   <si>
     <t>Set SharpDX to 2.3.1</t>
+  </si>
+  <si>
+    <t>Renderable World</t>
+  </si>
+  <si>
+    <t>Merging</t>
   </si>
 </sst>
 </file>
@@ -413,7 +419,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,21 +591,39 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="A10" s="2">
+        <v>41798</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.5</v>
+      </c>
       <c r="D10" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333315E-2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="A11" s="2">
+        <v>41799</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.625</v>
+      </c>
       <c r="D11" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.125</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -776,7 +800,7 @@
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D31" s="3">
         <f>SUM(D2:D30)</f>
-        <v>0.60416666666666674</v>
+        <v>0.8125</v>
       </c>
     </row>
   </sheetData>

--- a/doc/timelog/p.xlsx
+++ b/doc/timelog/p.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12105" yWindow="1905" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="13800" yWindow="1905" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>date</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>Merging</t>
+  </si>
+  <si>
+    <t>DependencyProperty</t>
   </si>
 </sst>
 </file>
@@ -419,7 +422,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,21 +630,39 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="A12" s="2">
+        <v>41800</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="D12" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="A13" s="2">
+        <v>41801</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
       <c r="D13" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -800,7 +821,7 @@
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D31" s="3">
         <f>SUM(D2:D30)</f>
-        <v>0.8125</v>
+        <v>1.0625</v>
       </c>
     </row>
   </sheetData>
